--- a/moveset_clusters.xlsx
+++ b/moveset_clusters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,97 +448,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>uluuldurrd</t>
+          <t>rulurrrdlrdrruul</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>uluurddluuldrrdld</t>
+          <t>rulurrrdlrdrruul</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>luuurdlddrrulluul</t>
+          <t>uurrrddlurul</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ldlur</t>
+          <t>rrudlluurrrd</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>uluuldrurdllddrruluurddll</t>
+          <t>rluurrrddll</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>luuuldrdddl</t>
+          <t>uurrrddlulurdluldrrr</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ldluruuurd</t>
+          <t>rrururrddllul</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ulldruuuldr</t>
+          <t>rulurrrdlrdrruul</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>uluuldrurdlddrruldluuddld</t>
+          <t>rulurrrdlrdrruul</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ulldruuurdlddrrullu</t>
+          <t>rulurrldrldrrr</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,641 +548,151 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>uluurdluldrrdluldd</t>
+          <t>uurrrddluruldl</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ullddruuu</t>
+          <t>rrururrddllull</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>uluuldrdrdld</t>
+          <t>uurrrddlulurldr</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>uuldlddruuur</t>
+          <t>rrudlluurrld</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ullddrulurrluurddl</t>
+          <t>uurrdulldrrurrrddllullld</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ulldrruluurddr</t>
+          <t>rulurrrdlrdrruul</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ulldrrulu</t>
+          <t>rrul</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>uluurdldlddruu</t>
+          <t>rrrludl</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>uluuldru</t>
+          <t>rrudlluurrrlddrr</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ullddrurul</t>
+          <t>rrudlluurrrd</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>luuurddrdluuldlu</t>
+          <t>uurrdlr</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>uluurdluldrrdr</t>
+          <t>rrururrddllu</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ldlururulu</t>
+          <t>rulurrrdlrdrruul</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>uululdrr</t>
+          <t>rulurrlddrrul</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>uluuldr</t>
+          <t>uurrrddlurul</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ullddruruluurddrdluluurd</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>lulu</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>uluul</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ullddrur</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>uluuldrd</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>lurul</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>uluurdl</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>uluurdduldlddruuudl</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>uluurddllddruuu</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>ulldrrluuur</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>uluurdldlddruuud</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>uluuldurrdldrd</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ulldruuur</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>uluurdldrlld</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>uluurdld</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>luuurddrdlu</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>uluurdldlddruuu</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>uluuldurrdld</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>uluuldrurdldrdrrulldluul</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>uluurdldld</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ullddruluruuldrddrruldluuldd</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ulldrruu</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>luuurdlddrruldluudldr</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>ldluruuurddrdllur</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>uluuldurrdlddru</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>luuuldrurdlddrruldluudd</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>ulldrrluuuldrurdlddrruldluu</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>luuurdlddrrululdlur</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>ullddruuud</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>uluurdluldrdrdrruldl</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>uluurdldrllddruluruuldrddrr</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>uluurdldrllddrulur</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>ulldruuuldrddrrlluuurddrdlr</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>ullddruu</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>lulur</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>uluurdldldrruluur</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>ullddru</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>uluurdluldrd</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>uluurdldrlldr</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>uluurdldldru</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>ullddruur</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>uluuldrurddrd</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>luuurdlddrruldluudddlu</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>ulldruuuldrurdlddrluurdl</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>uluurdluldrdrdrrullul</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>luuurdlddrruldluud</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>ulldruuurdldrl</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>uluurdldldrr</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>uluuldrurdld</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/moveset_clusters.xlsx
+++ b/moveset_clusters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,67 +448,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rulurrrdlrdrruul</t>
+          <t>uluuldurrd</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rulurrrdlrdrruul</t>
+          <t>uluurddluuldrrdld</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>uurrrddlurul</t>
+          <t>luuurdlddrrulluul</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rrudlluurrrd</t>
+          <t>ldlur</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rluurrrddll</t>
+          <t>uluuldrurdllddrruluurddll</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>uurrrddlulurdluldrrr</t>
+          <t>luuuldrdddl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rrururrddllul</t>
+          <t>ldluruuurd</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,27 +518,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rulurrrdlrdrruul</t>
+          <t>ulldruuuldr</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rulurrrdlrdrruul</t>
+          <t>uluuldrurdlddrruldluuddld</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rulurrldrldrrr</t>
+          <t>ulldruuurdlddrrullu</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>uurrrddluruldl</t>
+          <t>uluurdluldrrdluldd</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,87 +558,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>rrururrddllull</t>
+          <t>ullddruuu</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>uurrrddlulurldr</t>
+          <t>uluuldrdrdld</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rrudlluurrld</t>
+          <t>uuldlddruuur</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>uurrdulldrrurrrddllullld</t>
+          <t>ullddrulurrluurddl</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>rulurrrdlrdrruul</t>
+          <t>ulldrruluurddr</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rrul</t>
+          <t>ulldrrulu</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rrrludl</t>
+          <t>uluurdldlddruu</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>rrudlluurrrlddrr</t>
+          <t>uluuldru</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>rrudlluurrrd</t>
+          <t>ullddrurul</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,51 +648,541 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>uurrdlr</t>
+          <t>luuurddrdluuldlu</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>rrururrddllu</t>
+          <t>uluurdluldrrdr</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>rulurrrdlrdrruul</t>
+          <t>ldlururulu</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>rulurrlddrrul</t>
+          <t>uululdrr</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>uurrrddlurul</t>
+          <t>uluuldr</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ullddruruluurddrdluluurd</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>lulu</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>uluul</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ullddrur</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>uluuldrd</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>lurul</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>uluurdl</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>uluurdduldlddruuudl</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>uluurddllddruuu</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ulldrrluuur</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>uluurdldlddruuud</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>uluuldurrdldrd</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ulldruuur</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>uluurdldrlld</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>uluurdld</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>luuurddrdlu</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>uluurdldlddruuu</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>uluuldurrdld</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>uluuldrurdldrdrrulldluul</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>uluurdldld</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ullddruluruuldrddrruldluuldd</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ulldrruu</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>luuurdlddrruldluudldr</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ldluruuurddrdllur</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>uluuldurrdlddru</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>luuuldrurdlddrruldluudd</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ulldrrluuuldrurdlddrruldluu</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>luuurdlddrrululdlur</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ullddruuud</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>uluurdluldrdrdrruldl</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>uluurdldrllddruluruuldrddrr</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>uluurdldrllddrulur</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ulldruuuldrddrrlluuurddrdlr</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ullddruu</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>lulur</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>uluurdldldrruluur</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ullddru</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>uluurdluldrd</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>uluurdldrlldr</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>uluurdldldru</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ullddruur</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>uluuldrurddrd</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>luuurdlddrruldluudddlu</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ulldruuuldrurdlddrluurdl</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>uluurdluldrdrdrrullul</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>luuurdlddrruldluud</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ulldruuurdldrl</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>uluurdldldrr</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>uluuldrurdld</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/moveset_clusters.xlsx
+++ b/moveset_clusters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B429"/>
+  <dimension ref="A1:B726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,357 +448,357 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>drurrdlldluuu</t>
+          <t>uurrrddlulurlldr</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ruuldddrurldru</t>
+          <t>rluurr</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rlddruur</t>
+          <t>uurrrddlulur</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rldrr</t>
+          <t>uurrrddlu</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>drluuurddrrd</t>
+          <t>rururrrddllulul</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rlddruuu</t>
+          <t>rururrrddllulllur</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>drruldluurdrr</t>
+          <t>uurrdulldrrurulllurrrddr</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rdrrulldluu</t>
+          <t>rulurrlddrrulur</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rlddruu</t>
+          <t>rrudlluurrdr</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rlddrur</t>
+          <t>rurulrr</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rlddruudrrulldluudru</t>
+          <t>rulurrlddrluurrdlr</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>druud</t>
+          <t>rrudlluurr</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>drluurdr</t>
+          <t>rrururrddllullurd</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rlddruluur</t>
+          <t>uurrrddlurdrruullldd</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>drruldrur</t>
+          <t>rrudlluurrddrr</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>drruldluudrrr</t>
+          <t>rrrrlllulurrrdlluldrurrrllddrr</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>drruldluu</t>
+          <t>rrururrddllullur</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rlddruurdr</t>
+          <t>uurrdulldd</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>rlddruudrrulldluudrul</t>
+          <t>uurrrddlur</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>rdrrulldluurddl</t>
+          <t>uurrrddlulurd</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>rrdldluuudr</t>
+          <t>rluurrrddll</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>druluurddrrd</t>
+          <t>rururrrddllulurdlllurr</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>drlur</t>
+          <t>uurrrddludrrruulllddl</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>rrdldluuurddrr</t>
+          <t>rrururrddlluur</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>rrlldrr</t>
+          <t>rrururrddl</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>druul</t>
+          <t>uurrdulldrrurrrddllud</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>drluurdrrd</t>
+          <t>rulurr</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>rlddruudrrulld</t>
+          <t>rulurrld</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>rlddru</t>
+          <t>uurrdluld</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>rdrrulldluudrrdll</t>
+          <t>uurrrddludlrulurd</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>drrulrr</t>
+          <t>uurrdulld</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>rrllddruuul</t>
+          <t>rluurrrddlulur</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>rlddruudrrulldluud</t>
+          <t>rrururrddllluru</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rlddr</t>
+          <t>uurrrddlurdrruullllrdl</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>rlddruudrrulldluudrud</t>
+          <t>rrluldrrrulurrrddllllruuld</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>druudrrdlldluu</t>
+          <t>rluurrrddlul</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,1437 +808,1437 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>rrdldluuu</t>
+          <t>rluurdrurrrddllulll</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>rrdldluuud</t>
+          <t>rrlluurrdrurrdd</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>rlddrurr</t>
+          <t>rrlluurrdlrr</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>drluur</t>
+          <t>rluurrrddlulurl</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>rlddruuuddrrulldluuddruu</t>
+          <t>rurul</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>rrdldluuurdrdr</t>
+          <t>rrururrddllullurlld</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>rlddruuudd</t>
+          <t>rrulurddrlllur</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>rlddruudrrulldluu</t>
+          <t>rudrruurrddllull</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>drurrdlldluuudru</t>
+          <t>rluurrrddlur</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>rlddruuuddrrulldluur</t>
+          <t>uurrrddlulurl</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>drurrdlldluuudrud</t>
+          <t>rrudlluurrllddrururr</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>rlddruuulu</t>
+          <t>rrudlluurrd</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>rdrrulldluudrdl</t>
+          <t>rrudlluurrddrrlulld</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>drrul</t>
+          <t>rrrlu</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>drruldluudd</t>
+          <t>rrudlluurrdd</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>drurrdlluluurddd</t>
+          <t>rrrrllud</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>rlddruurlu</t>
+          <t>uurrdulldrrurrrddllulll</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>drluurddu</t>
+          <t>uurrdulldrrllurrrrrddllu</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>rlddruuud</t>
+          <t>rrudlluurrllddrurul</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>drluurd</t>
+          <t>rluurrrddlulurddluul</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>drurrdlldluuudrudd</t>
+          <t>rluurrrddlulu</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>druluurdldd</t>
+          <t>uuurrrddlud</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>rlddrurru</t>
+          <t>uurrrddlud</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>drurrdlluluurdld</t>
+          <t>rururrrddllulllurl</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>rrdldluuurd</t>
+          <t>rluurdrl</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>rdrru</t>
+          <t>uurrrrrddllllulurrlldrrdr</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>rdrrulldluuddd</t>
+          <t>rulurrllddrr</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>drruldluur</t>
+          <t>uurrrddludlur</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>rrdldluuudrrdr</t>
+          <t>rulurrllddrrruldr</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>drluurdd</t>
+          <t>rururrrddllululdld</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>drurrd</t>
+          <t>uurrrddlurdllulu</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>druluurdddlurrrdllu</t>
+          <t>rrlluurdurrdlullddrluurrrrrddl</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>drurrdlldluuud</t>
+          <t>uurrdu</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>drurr</t>
+          <t>rudrruldruurrddllul</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>rlddrul</t>
+          <t>rrulurll</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>rrdldluurr</t>
+          <t>rluurrrddlulurdd</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>drruldluudrr</t>
+          <t>uurrrddlulurld</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>rrdldluuurdd</t>
+          <t>uurrrddllr</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>drurrdlullddruruldluuddruul</t>
+          <t>rulurrll</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>drruldluurdrd</t>
+          <t>rrururrddllul</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>rlddruuldrrrullu</t>
+          <t>uurrrrrddlllulur</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>rdrrulldluurdd</t>
+          <t>uurrrddluruldl</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>rlddruurl</t>
+          <t>uurrrddluruldd</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>drluurdldd</t>
+          <t>rrudlluurrlldrurrdlluldrdrruull</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>druudrrdlldluuur</t>
+          <t>rrrludlluurrddr</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>drluurddr</t>
+          <t>rrlururrrddllulllur</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>rlddruud</t>
+          <t>rluurrrddlulurdlu</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>rlddruudrrullu</t>
+          <t>rrudlluurrrdldlulur</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>drurrdlluluurddldr</t>
+          <t>uurrrddlulurdluldr</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>rlddruudrrullulu</t>
+          <t>rrurulldldr</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>rrdldl</t>
+          <t>rrururrddllullurdldlu</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>drurrdlldluruulu</t>
+          <t>rulurrllddrrruldllururdrdr</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>rldrurl</t>
+          <t>rluurrrrrddlllurulddlru</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>drruldluudrrdl</t>
+          <t>rrudlulu</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>druluurddrr</t>
+          <t>rrudlluurrrr</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>drruld</t>
+          <t>uurrdulldrrurrrddllullld</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>drruldluurdrdl</t>
+          <t>rrlluurrdluldr</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>drurrdlldluruu</t>
+          <t>rluurrr</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>rlddruudrrulldluudrudl</t>
+          <t>uurrrddluru</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>drruldluurddr</t>
+          <t>rulurrllddrrrulurrlddr</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>drruldru</t>
+          <t>rururrrddllulllurdr</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>rdrrulldluurddr</t>
+          <t>rrudlluurrldldr</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>rrdldluuudrrd</t>
+          <t>rrrlururrddlruulldldllururldd</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>druluurdld</t>
+          <t>rrudlurrurrddllull</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>drruldludrrur</t>
+          <t>uurrrrrddlllu</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>druulu</t>
+          <t>rulurrldr</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>rlddruudrrulldluudr</t>
+          <t>rururrrddllulurddrruulrddlllulldrulurdr</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>druluurddd</t>
+          <t>uurrdulldrrlld</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>druudrrdlldluuudru</t>
+          <t>rrrludlluurrrr</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>rrdldluuudrrdll</t>
+          <t>rrururrddlllulurlldr</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>drruldlu</t>
+          <t>rrludrruurrddllulu</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>rdrrulldluudrd</t>
+          <t>rrrludlluurrrd</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>rlddruuuddrrulldluu</t>
+          <t>rrurulrrrddlll</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>drurrdlluluurdldrddluuuddrrrulldlu</t>
+          <t>uurrdrd</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>drurrdlluluurd</t>
+          <t>rrlulurrrdlldlur</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>drluurddurrdllulduu</t>
+          <t>rrudlluurrrrl</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>drrulrdllurrr</t>
+          <t>rrururrddllullrrdl</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>rlddruulddrurrulldluudr</t>
+          <t>rrudlluurrddrllur</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>drurrdlldlu</t>
+          <t>rururrrddllulurrll</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>rlddruudrrulldl</t>
+          <t>rrururrddlllrullurl</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>rdurlul</t>
+          <t>rururrrddllulld</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>drurrdlldluuudr</t>
+          <t>uurrdulldrrull</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>drurrdlluluurdldrddluuuddrrrullddluu</t>
+          <t>rururrrddllulll</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>drurrdllrulluurdldrddluuuddrrrulldlu</t>
+          <t>uurrrddl</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>drurrdlullddruruldluudr</t>
+          <t>uurrdulldrrurdl</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>rrdldluuudrr</t>
+          <t>rrururrddllullurlldr</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>rrdldluu</t>
+          <t>uurrrddlulurrllldr</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>rlddruuldrrrulldluu</t>
+          <t>uurrrddlurull</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>drurrdlluluurdldrddluuudrdrrulldlu</t>
+          <t>rrruulllddrudluurlddrrruldlluurrdrdll</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>rdrrulldluuddrrr</t>
+          <t>rulurrrdlrdrruul</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>rldruul</t>
+          <t>rrulu</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>rlddruurd</t>
+          <t>rrrllulurrlddrrul</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>drruldluurdr</t>
+          <t>rrlluurduld</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>drurrdlluluurdd</t>
+          <t>uurrd</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>drurrdlullddruruluddluurd</t>
+          <t>uurrrddlulurddl</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>rdrrulldld</t>
+          <t>rrudllurdrrulrulrrrddlruulldldllurrurrrddlllullurrd</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>drluurddrll</t>
+          <t>rulurrrddrruulllrdll</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>drurrdlluluurdl</t>
+          <t>rrrllluurrdrurrddlruulldll</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>rdrrulldluuddr</t>
+          <t>rrrludlluurrdr</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>drurrdlluluurdulddrdrruldldluuuddrruldlu</t>
+          <t>rudrlluurrdld</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>drluurddurrdll</t>
+          <t>uurrdulldrrurrrddllull</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>rlddruurludr</t>
+          <t>rrudllurdrruurrddlllruldl</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>drurrdlluluurddrd</t>
+          <t>rrudlluurrrlllddrrru</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>rldru</t>
+          <t>uurrrdd</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>druluurddld</t>
+          <t>rrudllurdrrlluurlddr</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>rdrrulldluudd</t>
+          <t>rururrrddl</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>rdrrulldluudrrrdll</t>
+          <t>rluurdurrdlu</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>rdrrulldluurd</t>
+          <t>uurrrddlulurdlul</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>rlddruudrrull</t>
+          <t>rulurrlddrrulr</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>rlddruudrrullr</t>
+          <t>rluurrrddlu</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>rlddruudr</t>
+          <t>rrudlluurdrrulrrrddllulllurrlldrrrdr</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>drruldluudrrd</t>
+          <t>rrudlluurrrdldl</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>rdrrulldlu</t>
+          <t>rrudlu</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>drruldluuddrrur</t>
+          <t>rrlluurrrrrddlllulurdl</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>rdrruldl</t>
+          <t>rrrludlluurr</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>drurrdlldluruuddluud</t>
+          <t>rrulrrurrddlllulurdl</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>rdrrulldluud</t>
+          <t>rrrludllurdrruurrddlllruulrddlulldrur</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>rrdldluuur</t>
+          <t>rurllurrdldrr</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>rdrrulldlur</t>
+          <t>rrururrddllllud</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>drurrdlldlur</t>
+          <t>rrrlludrrulrdllluurlddrrruurrddlruulldldlluurrllddrru</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>rrllddruruldluurdrd</t>
+          <t>rrudllurdrruulrrrddlllru</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>drruldluuddrr</t>
+          <t>uurrrrrddllllulurrrdldrrruul</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>rdrrulldluudrr</t>
+          <t>uurrrrrddllluruldlrdlur</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>drruldluudrrdll</t>
+          <t>rurldrrudllluurd</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>rlddruuudrd</t>
+          <t>rudluurrrdlrdrruul</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>rlddruuuddrrulldluuddd</t>
+          <t>rrulurldrr</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>drurrdlluluurdldd</t>
+          <t>rrlluurrd</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>rdrrulldluurddrru</t>
+          <t>rrrludlluurrrddlululdr</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>drrlurr</t>
+          <t>rrrludlluurrrddrl</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>rlddruudrrul</t>
+          <t>rrururrddlllulurldrdluu</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>drlurrldru</t>
+          <t>rrudlluurrllddrrrulu</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>drurrdlluluurddldrd</t>
+          <t>uurrrddll</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>rrdldluuudd</t>
+          <t>uurrdlrrd</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>rlddruuulddrrrulldlu</t>
+          <t>rrudlluurdur</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>drurrdlluluurdldrddluuurddrrulldlu</t>
+          <t>uurrrddlulurrddlulul</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>drrulrdl</t>
+          <t>rrrludruurrddllullurlddlu</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>drluurddru</t>
+          <t>rururrrddllululd</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>drluurdl</t>
+          <t>rrrllluurrdrdluulldrrdrullldrurrdr</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>drurrdlulluurd</t>
+          <t>rrrlurdlllurrdruldrr</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>rlddruuudr</t>
+          <t>rrrrlllurdrululdl</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>druudrrdlullddruruldluudrr</t>
+          <t>uurrdulldr</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>rlddruul</t>
+          <t>rudrruurrddlll</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>druluurdldrrld</t>
+          <t>rluurrrrrddlllrrruullldulldrrurrrddllu</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>rdrrulldlud</t>
+          <t>rrrlludrruldlluurlddrrruurrddlll</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,17 +2248,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>drurrdluludrdldluuu</t>
+          <t>rrlluurdrdrulu</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>drluurddl</t>
+          <t>rurldrrluurrrddllul</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,537 +2268,537 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>drlurr</t>
+          <t>rrlluurrrrrddlllruullld</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>rlddruudrru</t>
+          <t>uurrrddlulurdl</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>rlddruudrrulluld</t>
+          <t>rrludrruldlluurlddrrruurrddlllurul</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>druluurdddl</t>
+          <t>rrrlurdlllurdrruulrrrddllllulurrlddrrullr</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>drlurdr</t>
+          <t>rurur</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>drurrdlldluu</t>
+          <t>rrrludllurdrruurrddlruulldldlluurrr</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>drurrdlldluud</t>
+          <t>rururrrddlllrulllu</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>drruldluddru</t>
+          <t>ruldrrlurllurrddrluurlddrudr</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>rrdldluuurddr</t>
+          <t>rrururrddllrruulldllurlddrlurulldrrdrr</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>drurrdlluld</t>
+          <t>uurrdulldrrllurrrrrddllulurrldd</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>drruldluudrdru</t>
+          <t>rururdlllurrdll</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>rlddruudrrulldluudruldd</t>
+          <t>rururrrddlludlullur</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>rlddruudrrulldlurudlur</t>
+          <t>rulurrlddrrul</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>drldr</t>
+          <t>rururrrddlllu</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>drurrdlldluuudrd</t>
+          <t>rrudrlurulddllurlurddrruurrddlllrulruld</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>drruldluurddrur</t>
+          <t>rluurrrddlulurrddll</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>rlddruurlud</t>
+          <t>rurllurr</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>drlurrl</t>
+          <t>rulurrlddrluurrdlurd</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>rdrrulldluudrrrdllld</t>
+          <t>rrrrlllluurrdrurrd</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>drurrdlldluuudrul</t>
+          <t>rulurrlddrrulurr</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>rlddruudrrulluddluur</t>
+          <t>rrrlurdllluurrdrd</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>rdrrulldluudr</t>
+          <t>rrrlulurddru</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>drruldluud</t>
+          <t>uurrrddlulurldr</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>drluuurdddru</t>
+          <t>rrlluurrrrrddlllu</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>drluuurddd</t>
+          <t>rrudlluurrrd</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>drrulrd</t>
+          <t>rrludluurrrd</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>drruldluurd</t>
+          <t>rrudlluurdurllddr</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>drurrdlldluuru</t>
+          <t>rulurrlddrruldrrllu</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>drurrdlldl</t>
+          <t>rurllurrdl</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>drruldluudr</t>
+          <t>ruldrrruldlluurlddrrruurrddlruulllddlluurrr</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>rrdldluuuddrru</t>
+          <t>rrrrll</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>drurrdlluluurddr</t>
+          <t>ruldrrruurrddlruulldlurrrddllu</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>rldrur</t>
+          <t>rluurrrdd</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>rldrrl</t>
+          <t>rrrrl</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>druuddd</t>
+          <t>rururrrddlludlu</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>druuldrrrdlldluuur</t>
+          <t>rrururrddllullurdrdrruu</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>rrdldluuudrdr</t>
+          <t>rudrururrddlllulldrul</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>rrdldluuurddru</t>
+          <t>rluurrrrrddlllulurlldrrdr</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>rrdldluuuddrrr</t>
+          <t>rururd</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>druluurdldrl</t>
+          <t>rururrrddllulurr</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>rrldr</t>
+          <t>rrudllurrdrrlulll</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>rlddruudrrulluldduu</t>
+          <t>uurrdrdrr</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>drdluur</t>
+          <t>rururrrddlludrruul</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>drrulr</t>
+          <t>rrlluurrdurrrddl</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>rlddrulu</t>
+          <t>uurrrddlurullrdl</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>druluurddl</t>
+          <t>rurll</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>druluurdddr</t>
+          <t>rrudlluurrddlluu</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>rrdldluuuddr</t>
+          <t>rrrludruurrddllul</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>drurrdlullddrulurdrrull</t>
+          <t>uurrdl</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>drluurddrur</t>
+          <t>uurrrddlulurlld</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>rlddruudrrulrlddruuudd</t>
+          <t>rulurrlddrruldrr</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>druudrrdlldluuurd</t>
+          <t>uurrrddludrrruulll</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>drurrdlullddrurul</t>
+          <t>uurrrddludlrulurld</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>drurrdlluluurdldrdrruldldluuuddrruldlu</t>
+          <t>rrudllurr</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2808,527 +2808,527 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>rlddruuluurd</t>
+          <t>uurrrddllrruuldlurrd</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>druluurd</t>
+          <t>rulurrlddrul</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>rdrrulldluur</t>
+          <t>uurrrddlurulrrr</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>rlddruuuddrrulldluud</t>
+          <t>rrrlulur</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>drurrdlldluuudd</t>
+          <t>rururrrddllululdrrdlulldr</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>drluurdrr</t>
+          <t>rururrrddlllrull</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>rlddruudrrullulduu</t>
+          <t>rluurrrrrddlllurull</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>drurrdlldluurudlur</t>
+          <t>rruld</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>rdrrulldluurdrrdll</t>
+          <t>rulurrllddrru</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>drruldluudrdr</t>
+          <t>rurllurrrrlllddrrudr</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>drluurddurrdlul</t>
+          <t>rluurrrd</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>druluurdddurrdll</t>
+          <t>rrrluldrruurrddllullurdldlur</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>drluurddurrd</t>
+          <t>rulurrlddr</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>drluurdld</t>
+          <t>uurrdrullldrrurrrddllulurddrruul</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>rlddruudrr</t>
+          <t>rrruulllddrulurrllddrrrullu</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>drurrdlldluurudlu</t>
+          <t>rrudlluurrldurr</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>druluurddr</t>
+          <t>rulurrldrurdur</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>rlddruudrrulludddluuurd</t>
+          <t>rudrrulurddllluurrdd</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>druudrrdlullddruul</t>
+          <t>rrudllurdrrr</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>rlddruuuddrrullrdlluudr</t>
+          <t>rrurulddlluurrdldrrr</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>drlurldd</t>
+          <t>rururrrddlllrullldrulurd</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>drurrdlluluurddl</t>
+          <t>rrrludllurdrruurrddlllrul</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>rlddruuldrrrullddluuu</t>
+          <t>uurrrddlurd</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>rrdldluuurdr</t>
+          <t>rluurrrddlulurlldrrdr</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>drruldr</t>
+          <t>uurrdulldrrurrrddllul</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>drrulddluuurdrr</t>
+          <t>uurrrrrddllllrulur</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>rlddruudrrulluldr</t>
+          <t>rulurrllddrrlur</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>rldrrll</t>
+          <t>rurldrrudr</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>druudrrdlldluuu</t>
+          <t>uurrrddlurullrd</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>rlddruuuddr</t>
+          <t>rrururrddlluuldldrlurrurrddlllul</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>drluurddurrdllu</t>
+          <t>rrurulrrrddllulldrlu</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>rrdldluuurdl</t>
+          <t>rulurrlldrrlurrdulllddr</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>drurrdlluluurdldrdrrull</t>
+          <t>rrrludlluurrrddr</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>rrdldlurr</t>
+          <t>rrrlururrddlruulldldlluurrdd</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>drurdrurdlu</t>
+          <t>rulurrldrldru</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>rduluurd</t>
+          <t>rrudlluurrllddrrrrlulurr</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>drurrdlluluurddlu</t>
+          <t>uurrdulldrrll</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>druluurdddu</t>
+          <t>rrururrddll</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>drurrdlldluuuddrrulu</t>
+          <t>rurldrrud</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>drruldlurrd</t>
+          <t>rulurrldrl</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>drlurdrlur</t>
+          <t>uurrrrrddllluruld</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>rlddruudrrulluddluurd</t>
+          <t>uurrdlul</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>drudr</t>
+          <t>rluur</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>rlddruuldrrrulldluud</t>
+          <t>uurrdulldrrulldr</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>druuddr</t>
+          <t>rururrrddllu</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>druluurdd</t>
+          <t>rrrlludrruurrddlllulldrlurrrd</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>drurrdlldluuudrudl</t>
+          <t>uurrrddlurul</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>rrdlrr</t>
+          <t>rrlulurrd</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>drurrdlldluuudruld</t>
+          <t>rrulur</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>rlddruuuddrrulldluurd</t>
+          <t>uurrrrrddllllulurrdld</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>drurrdlldluruuddluudd</t>
+          <t>rrrludlluurrldldrr</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>rlddruuuld</t>
+          <t>rluurrrrrddlll</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>rlddruuldrrrulldluudru</t>
+          <t>rrrlururrddll</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,327 +3338,327 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>drurrdll</t>
+          <t>rrrludlluurrdrd</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>rrdldluuurdrd</t>
+          <t>rrlulurrlddrrul</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>drruldluuddrur</t>
+          <t>rluurdrurrrddllullld</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>rldrrlurl</t>
+          <t>rulurrllddrrudrr</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>drurrdlldluuudruddd</t>
+          <t>uurrrddllrurdll</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>drdluuurdld</t>
+          <t>rrudlluurrddrllluurrrdldlurrdr</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>rlddruuul</t>
+          <t>rrurulddlluurr</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>rdrrulldluuddrr</t>
+          <t>rrudlluurrrl</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>druuldrrrdlldluuu</t>
+          <t>uurrdulldrrllurrrrrddllulllurrrrlll</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>drrlluurdrdldluuurdrdll</t>
+          <t>rrrludlluurrdrdr</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>rrdlr</t>
+          <t>uurrrrrddllludrrruulllrr</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>rlddruuulddrrrullddluuur</t>
+          <t>uurrrddlurulddlrul</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>druudrrdlluluu</t>
+          <t>rrudlluurrrdldruull</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>rlddruudrrullud</t>
+          <t>uurrrddlurdrruullldl</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>drurrdlluluurdldrddluuudrr</t>
+          <t>rrlluurrdrurrddl</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>drlurrldr</t>
+          <t>rrrlurulddllurr</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>drurrdluld</t>
+          <t>rrrludruulrrrddlruulllddllurlurrrd</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>rlddruudrrulldluudrudlu</t>
+          <t>rrudlluurrrlldulddruurrd</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>drurrdlluu</t>
+          <t>rrrludlluurrl</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>drurrdlulluurdl</t>
+          <t>rrulurdd</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>rdrrulldrr</t>
+          <t>rulurddrruurrddll</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>rdrrulldluudrdld</t>
+          <t>uurrdluldrr</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>rldrurldru</t>
+          <t>rrlururrrddllulllurdd</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>drruldluudddr</t>
+          <t>rrlluurdurrdldrr</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>drurrdlldluru</t>
+          <t>rrururrddllulldlururdlu</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>rdrrulldl</t>
+          <t>rrudlluurrldrurdl</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>drurrdlldluruuddluu</t>
+          <t>rrrllluurrdurr</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>rlddruudrrulldluudrudd</t>
+          <t>uurrrrrddlllur</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>drruldluurddl</t>
+          <t>rurllurrd</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>drrur</t>
+          <t>uurrrddlurullrr</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>drruldluurdlddru</t>
+          <t>rrrllluurdldrururrr</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>rlddruudrrulluddluud</t>
+          <t>uurrrddlulurddlu</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>rdrrulldluurddld</t>
+          <t>rrrllur</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3668,437 +3668,437 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>drluurddlurrrdll</t>
+          <t>rururrrddlludlulldrlurrurdlllurdrrdrruulrddllul</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>rrdldluuuddd</t>
+          <t>rrrllu</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>drdluuuurdd</t>
+          <t>rrururrddlluull</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>drulu</t>
+          <t>rrlulurrrdlr</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>drurrdlullddrur</t>
+          <t>rrururrddllrruulldllurlddluru</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>rlddruudrrulldlurud</t>
+          <t>rrrrllurullrd</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>drudld</t>
+          <t>rrudllurrl</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>rlddruulu</t>
+          <t>uurrrddlulrrull</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>rdurd</t>
+          <t>uurrrrrddllludrrruullld</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>rrdld</t>
+          <t>uurrrrrddllllul</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>druudlu</t>
+          <t>rrrlururrddlruulldldlluurrrdldlulurrd</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>drluurdduu</t>
+          <t>uurrrrrddllllulurrd</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>rrdldluurrdl</t>
+          <t>rrrlul</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>drluurddurrdlluuldd</t>
+          <t>uurrrddlulu</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>rlddruudrrulldluudrd</t>
+          <t>rudrruurrddllrruulldl</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>rldrlurrl</t>
+          <t>rulurrlldrdrrulurr</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>drluurddrlld</t>
+          <t>rururrrddllull</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>drruldluudddruurd</t>
+          <t>uurrrddlulurldrdlu</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>drurrdl</t>
+          <t>uurrrddlurdrruul</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>rrdldlu</t>
+          <t>rurldrrudluurrlddr</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>druluurdddurrdllu</t>
+          <t>rrurulddllurrurrrddllu</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>drurrdlullddrulurdrrulld</t>
+          <t>rrruurrddlllululdrurrrld</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>drurrdlldluuudrrr</t>
+          <t>rulurddrluurl</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>drurrdlluluurdldrld</t>
+          <t>rrurulrrrddll</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>drluurddurrdlluld</t>
+          <t>rrulrrul</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>drlurrldrul</t>
+          <t>rulurrllddrrlluurrdurdllldr</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>drurrdlldluuudrudlu</t>
+          <t>rrulurdldrrulurr</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>drurrdlldluruuddluudr</t>
+          <t>rrudlluurrrdlldlu</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>rldrrlur</t>
+          <t>rrlulurrldd</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>rldrurldruluul</t>
+          <t>rrudlluurrddl</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>drurrdlullddruruldlurudlu</t>
+          <t>rururrrddlllrullldr</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>drurrdlldluruuddluur</t>
+          <t>rurllurrrdurld</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>drurrdlullddruruldluuddrrulu</t>
+          <t>rulurrlddrrulurddr</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>rrdldluudrr</t>
+          <t>rururrrddlllrullld</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>rlddruudrrullddluuudru</t>
+          <t>rrurulddllurdrur</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>rrdlu</t>
+          <t>rrruul</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>drurrdlldluuudruldddr</t>
+          <t>rururrrddllluurrrddllulllur</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>rrdldluurdru</t>
+          <t>uurrdulldrurrdd</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>rlddruudrrulluldrddluuu</t>
+          <t>uurrrddlurulddlrulrul</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>drlurd</t>
+          <t>rrlulurrrdlrur</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>drurrdlldluuuddruu</t>
+          <t>rrrlluldrrruurrddlllr</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>rlddruudrrulluddl</t>
+          <t>rurllurrrdlll</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>drurrdlldluurud</t>
+          <t>rrluldrrrulurrrddlll</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>rlddruuuddrrulldluudr</t>
+          <t>rrrlururrddllullurlld</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4108,67 +4108,67 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>rrlldrrlulu</t>
+          <t>rurllurrrrldl</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>drluurddrl</t>
+          <t>rrruuldlrrdlruurrddllul</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>drudrluluurddrdldluu</t>
+          <t>rluurrrrrddllludr</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>drurrdlldluuuddruudd</t>
+          <t>rrrlurdllluurr</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>drurrdlullddruruldluru</t>
+          <t>rurldruurrrddlllullurrdlldr</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>druluurdl</t>
+          <t>uurrrddlurdllur</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>rdrrulldlurdrr</t>
+          <t>rrrllururrrddlludrruulld</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4178,551 +4178,3521 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>rdrrulldluudrrdlld</t>
+          <t>rudluurrllddrrrulullddrrrr</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>rrlldrrldl</t>
+          <t>rulurrldd</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>rldrl</t>
+          <t>rulurrlddrruldrrl</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>rlddruuulddrrrulldluurdl</t>
+          <t>rrurulrrrddllulld</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>rlddruudrrullddluuu</t>
+          <t>rurllurrdldrrrll</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>rdrrulldluudrrdl</t>
+          <t>uurrrddlurdrruull</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>druudrrd</t>
+          <t>uurrrrrddlll</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>rlddruudrrulluddluurdl</t>
+          <t>rrururrddllullurlddluru</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>rdrruldlluurdrrdll</t>
+          <t>rrululdrdrrrllluurrr</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>drurrdllu</t>
+          <t>rulurrrllldrrurdlurrllllddrurr</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>drurrdlluuldrddluuur</t>
+          <t>rrudlluurrrrllddrrlllulurrrddr</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>drrulddluurrr</t>
+          <t>rrrludruurrddlllu</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>rlddruuulddrrrulldluur</t>
+          <t>rulurrrdlurddrruul</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>rlddruudrrulldluuddruudl</t>
+          <t>rrruuldurddlrullr</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>rrdldluuurdrdl</t>
+          <t>rrudlluurrllddrrrrlllluurrrr</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>rlddruuudrl</t>
+          <t>rrururrddllu</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>druudrrdlldluuud</t>
+          <t>rrrlururrddlruulldldllururrdlrullld</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>rrllddrurul</t>
+          <t>uurrdlr</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>drrllurrlluu</t>
+          <t>uurrrddluruld</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>rldrrlurd</t>
+          <t>uurrrddllulurrdldr</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>druluurdldr</t>
+          <t>rrudrlurull</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>drurrdlluluurdldduurdrdlu</t>
+          <t>rrulrrurrddllull</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>druudrrdlldluuurdd</t>
+          <t>uurrdlu</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>rlddruuulddrrrulldluu</t>
+          <t>uurrrddllrruu</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>drruldluuddr</t>
+          <t>rulurrrd</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>drruldluru</t>
+          <t>rluurdrurrrddllull</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>rduluu</t>
+          <t>rururrrddlludlullurdrrdllul</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>druluurdddrl</t>
+          <t>rudrruldlluurldrdrruurrddllul</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>rlddruudrrulluldurdddluu</t>
+          <t>rrudlluurrllddrrrulurr</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>rlddruudrrulldlur</t>
+          <t>rururrrddlllrullldrlurrurddlullur</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>rrdldluuuddrr</t>
+          <t>rluurrrddlulurldrrdlluul</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>drluurddrul</t>
+          <t>rrudllur</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>drluuurddr</t>
+          <t>uurrrddllurdrulul</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>drurrdlulu</t>
+          <t>rurldrrulu</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>drurrdlluluurdlddrruldluudd</t>
+          <t>uurrrrrddlllurul</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>drudrulu</t>
+          <t>rrrllluurrdrurrddl</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>drurrdlluluurddul</t>
+          <t>rrudlluurrrlll</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>drurrdlluul</t>
+          <t>rrrludlluurrr</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>rlddruudrrullul</t>
+          <t>rrudlluurrddll</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>drruldluurdrdll</t>
+          <t>uurrdru</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>rdrrul</t>
+          <t>rulurrrddrruulllldrldl</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>rlddruuldrrrulluddluu</t>
+          <t>rrrludruurrddlruulldldlluurrdr</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>druudrrdlldluuudr</t>
+          <t>rrudlluurrl</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>drluurddurrdlluldu</t>
+          <t>uurrrddluruldlru</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>druluurdldrr</t>
+          <t>rururrrddllulllurdrrdllr</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>drlurldrrlur</t>
+          <t>uurrrrrddlllul</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>rrdluldrrr</t>
+          <t>rurllurrrdur</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>rrdldluuudrdru</t>
+          <t>rururdlllurr</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>rlddruudrrulldluuddruu</t>
+          <t>rurldrrluurrrddllulllu</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>rrdldluuuru</t>
+          <t>rururrrddllulllurdrrdlulldrr</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>druuddrlurr</t>
+          <t>rulurrldrldr</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>rdrrullulddr</t>
+          <t>rulurrlddrruldr</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>rlddruudrrulldlurudlu</t>
+          <t>rrrludlluurrrrl</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>rrdldluurrdr</t>
+          <t>rrudlluurrllddrrr</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>druudrrdlldluuurdrd</t>
+          <t>uurrrddllulurrlddrruldlu</t>
         </is>
       </c>
       <c r="B429" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>rrlluurdrlldr</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>uurrrddlulurrll</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>rururrrddllulllurdrrdlulu</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>uurrdulldrrurrrddllu</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>uurrrddlulurldrdr</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>ruldrrrulurrrddll</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>rrlulurrllddrrrulrdrl</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>rrlluurdldruurrdlluldrrr</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>rrrludruurrddllullur</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>uurrrddlul</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>uurrrddlulurll</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>rulurrllddrrrul</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>rudrruurrddlllr</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>rrluldrrrulurrrddlruulllddlluurrd</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>rrudlluurrdldlu</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>rrulrrurrddllu</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>uurrrddlurulddl</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>uurrrrrddlllulurlldurrrr</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>uurrdrullldrr</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>rrrlururrddlluulrr</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>rluurdrull</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>rulurrlddruldr</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>rrudlluurrrldr</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>rulurrlddrllurrdr</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>rulurrlddrruld</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>rrururrddlllrullurld</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>rrururrddllrruulldl</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>uurrrddllrruulldrdruld</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>uurrdulldrrurrrddll</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>uurrrddlurdll</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>rrrludlluurrddrr</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>rrrllurdrudlu</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>uurrrrrddllll</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>rurllurrrr</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>rrudlluurrdlu</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>rrrlururrddllullurdldlu</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>rulurrlddrrulrdr</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>rluurdrurrrddllul</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>rurulddrr</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>rururrrddlludrruullddlrul</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>rrrlururrddllullurlddlur</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>rrrlludrruurrddlllruul</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>rrrludruurrddlruulldldlluur</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>rurulddrru</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>rrrllulurddrruurrddllulr</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>rulurrlddrluurrdl</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>uurrrddlurullrddlul</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>rrurulrrrddllulldlur</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>rluurdlurrrdlu</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>rrrlururrddllullurdldl</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>rururrrddllul</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>uurrdulldrr</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>rrlulurrdurldr</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>uurrrddludlru</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>rrlluurdurr</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>rrlulurrrdldr</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>rudrruuldllurrrdlldru</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>rrudlluurrllddrudruurrld</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>rurllurrrdlurr</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>rrrlururrddlluuld</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>rrrrllurdr</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>rrudlluurrrdl</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>rrudlluurrddrluurr</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>rudrlururrrddlllullurrddrrruulllrdurrddllulllurrlldrrrd</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>uurrrddlurdrruulllddlrulrul</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>rrruulllddrudrruurrddlllruulldrdrullldru</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>rururrrddlll</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>rrrludruurrddllullurdldlurru</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>rrrludruurrddll</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>rrudlluurrldldrurr</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>rrruurrddlllurdllu</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>rrrlurulrdldllurdrruurrddllulldruldl</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>rrudlluurrdldrrrl</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>rrudlluurrrlldldr</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>rudluurrrddrruulrddllul</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>rudluurrrrldl</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>rrlluurrdullddrulurr</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>rrurulrrrddlllulrul</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>uurrrrrddllllrudlu</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>rulurrlddrrulrdlll</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>rulurrrddrruulrddllul</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>rrrlurulddllurrurrrddllu</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>rrururrddllullurlddruulddlurr</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>rrrllulurrlddrrulu</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>rrrrlllluurdrdrullldr</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>rururrrddllulllurd</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>rrururrddlllulu</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>rururrrddlllrullldrluurd</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>rrudlluurrrrlllldrrdrr</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>rulurrldrldrr</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>rrrrluuldrdr</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>rrudlluurrrlllddrulurrdr</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>uurrrddlulurrlldr</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>rrulrrurrddllullul</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>rurllurrrdurl</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>ruldrrruldlluurrrrlddrll</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>rrrludlluurrdd</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>uurrrddlurdrruullllrddlu</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>rulurrlddrluurdur</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>uurrrddllrruuldulldrr</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>uurrrddludlrruulldl</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>rulurrllddrrrullur</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>rluurrrddlulurll</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>rrlluurrrrrddlllulu</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>rrruuldrulllddrulurrdrdllurrdrl</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>uurrrddludrr</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>rulurrllddrrrulurr</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>rrlulurrr</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>rrulurlldrdrrr</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>rrrrluuldlr</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>rrudllurdrruurrddllulr</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>uurrrrrddlllulurlldr</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>rrrlludluurddrruurrddlluulrddlrulu</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>rudrururrddlllul</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>uurrrddlururr</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>rluurrrrrddlllulurd</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>rrururrddllluruld</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>rurldr</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>rrudlluurrrdldrl</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>uurrrrrddllludlud</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>rrudlluurrrdlu</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>rluurdrurrrddllulllurr</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>uurrrddludl</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>rrrlud</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>rrudllurrldrrlulurrlddrr</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>rudrruurrddlruulldldlluurlddru</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>rrururrddlllu</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>rrrlururrddlruulllddlluurr</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>rrrlururrddllullurll</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>rrudllururlddru</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>rulurrldrulddrrluurlddrud</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>rrlulurrrdlru</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>rrudlluurrdld</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>rrrludlluurrddll</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>rudrur</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>uurrrddlulurlldrr</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>rrlulurrdurrllldd</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>uurrrddllurdrulll</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>rrrlulurrr</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>uurrdrullldd</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>uurrrddludruu</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>uurrrrrddlllulurld</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>rrudruurrddll</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>uurrrddlurulddlruuldl</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>rrulurrr</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>uurrdulldrrlurrrrddllull</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>uurrrrrddlllulurl</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>rudrruurrddlllrull</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>rurldrrluurrrddllulllur</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>rrrluruldld</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>rulurrrdlurddlurdrruulrddllulullddr</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>uurrdulldrrl</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>rrrludlur</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>rulurrldrldrrr</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>rrlluurrrrrddlllur</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>rrudllurrlurlddrrrlluurrldldrluru</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>rrludrrulrurrddlll</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>rrrlludrruldruurrddlruulllddlluurlddrrururrddlluull</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>rulurrldrurdurld</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>rrrludllurdrruulrddllluurrrd</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>rrudlluurrddrllurur</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>rrludrruldrr</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>uurrdulldrurr</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>rrrrluuldurrr</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>rrruulldurdlld</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>rrudlluurrllddrrrrllll</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>uurrrrrddlllurdllul</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>rrlluurrdrulllddrulurrrldr</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>rrrlururrddllullurlldrrrdlull</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>rrururrddllll</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>rrrlururrddllu</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>rururrrddlllrulllurdldr</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>uurrdulldrru</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>rrlulurrl</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>rulurrlddrrulu</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>rluurrrddlurdllud</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>rrlluurdurrdl</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>rurulddrrud</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>rururrrddlllr</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>rrrlururrddlluull</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>rulurrrddlu</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>rrludrrulurrrddllu</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>rrrllluurrrrrddllll</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>rluurdrurdllu</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>rrrludlluurrllddrrru</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>rrururrddlllulurdl</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>uurrdull</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>rrrllluurrduldl</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>uurrrddlururrddllllulu</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>rrludrruldruurrdd</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>rurllurrdldrrlu</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>rrrlurdlllurdrruulrddllururrrddlll</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>rulurrlddru</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>rrrllurllurrd</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>rrrllururrrddllluurdlll</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>rrururrddllullu</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>rrrludlluurrrldrdr</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>uurrrrrddllllurdrulll</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>ruldrrrllulurrlddrrull</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>rrurulddlluurrddr</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>rrludrruldlluurlddrrruurrddllu</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>rrururrddlluuld</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>rudrruurrddllul</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>rururrrddllulllurddru</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>rrudlluurrld</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>rururrrddllullldrruulddrrrlulurrllldd</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>rrrllulurddrruldruurrddllullurlldrrrdlull</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>rulurrldrldrrrlluurrldl</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>rudrrllluurrlddrrulu</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>rrludrrulurrrddlluuldlrrdlu</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>rrururrddllull</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>rrrrlludllurrlurrr</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>rrudlluurrdl</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>rrrlludluurrllddrrrulrdr</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>rulurrldrurl</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>rrrlururrddllul</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>ruruld</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>rrururrddlluulr</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>rrlulurrrd</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>uurrrddlurullrddlu</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>rulurrrr</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>rrrludruurrddlruulllddrlllurrdrul</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>rrururrddlll</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>rrlulurr</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>uurrrddllurdrulllur</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>uurrrddlururrd</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>rururrrddllulllu</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>uurrrddlurulddlru</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>rrrllluurdurrddlulurldldrurr</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>rrrlururrddlruulldldllururlddrrulrdr</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>rrlluurrdulldrr</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>rururrrddlllullurrrdldr</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>rrudlluurrlldrurdr</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>rrrlurulddllurdrruurrddlllulldr</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>rrrludllurrlurrlddru</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>uurrrddlulurdr</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>rrrllluurrdulldrurrdd</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>rrruulldurrddlulurd</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>rulurrldrlurrr</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>rrulurlldrd</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>rrudlluurrddrrllllururdrdr</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>uurrrrrddlllulurll</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>ruldrrururrddl</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>rrrlururrddllullurlldurddr</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>uurrrddluruldr</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>rrrludllurdrruurrddlllruul</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>rluurrrddludl</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>rrurulrrrddlluuld</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>rrudlluur</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>uurrrddllulurrdld</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>rrrludlluurdr</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>rrururrddllullurdldlur</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>rrrrlludlluurrrrllddlulurrr</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>rrlluurdldrluurrrdlr</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>rrrrlludlluurr</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>rrrrllulurddlluru</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>rrudllurdrrulrulrrrddlll</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>rulurrllddrrrulu</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>rrrllururrrddlllru</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>rrludluurrrdlrur</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>rururrrddlllulldrulurrd</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>rrudllururrdl</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>uurrrddlulurrrlllldrrd</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>rrrrlllulurrdl</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>rrudrlururrddlllulurld</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>rrulurd</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>rrudllururrdldrr</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>uurrdluldr</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>rrruurrddlllu</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>rulurrldrurr</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>rrrrluuldullddrrruulldldrrururrd</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>uurrrddllulurrdllu</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>rrururrddllullurlddlur</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>rrrludruurrddlllulurlldr</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>rrluldrrrulrdllluurlddrrruurrddlllu</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>rrudlluurrddr</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>rruldrrr</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>rrrrlu</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>rrudlluurrddllu</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>rrruurrddl</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>rulurrlddrrull</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>rrrrlludlluurrrrllldldrrr</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>rrrrluu</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>rrruuldurrrddlruullldldlu</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>rudrrllurdru</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>rrlluurrrrrddllludrrruullld</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>rrudlluurrdldrr</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>rrrludllururd</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>rrrludlul</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>rrrludlluurrd</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>rrururrddlllurul</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>uurrrddludr</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>rrrluru</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>rrrludllurrdru</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>rrrludruurrddllu</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>uurrrddllururdurrddllulllurr</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>rrrrlludlu</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
